--- a/src/main/resources/中控指令集.xlsx
+++ b/src/main/resources/中控指令集.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="122">
   <si>
     <t>空调</t>
   </si>
@@ -59,7 +59,7 @@
     <t>大屏前西侧空调</t>
   </si>
   <si>
-    <t>打开空调</t>
+    <t>打开</t>
   </si>
   <si>
     <t>测试正常</t>
@@ -68,238 +68,229 @@
     <t>工作区</t>
   </si>
   <si>
+    <t>全部灯光</t>
+  </si>
+  <si>
+    <t>西门</t>
+  </si>
+  <si>
+    <t>关闭</t>
+  </si>
+  <si>
+    <t>东门</t>
+  </si>
+  <si>
+    <t>18度</t>
+  </si>
+  <si>
+    <t>轻亮</t>
+  </si>
+  <si>
+    <t>四楼西门</t>
+  </si>
+  <si>
+    <t>19度</t>
+  </si>
+  <si>
+    <t>中亮</t>
+  </si>
+  <si>
+    <t>四楼东门</t>
+  </si>
+  <si>
+    <t>20度</t>
+  </si>
+  <si>
+    <t>最亮</t>
+  </si>
+  <si>
+    <t>五楼西门</t>
+  </si>
+  <si>
+    <t>21度</t>
+  </si>
+  <si>
+    <t>工作1区</t>
+  </si>
+  <si>
+    <t>五楼东门</t>
+  </si>
+  <si>
+    <t>22度</t>
+  </si>
+  <si>
+    <t>23度</t>
+  </si>
+  <si>
+    <t>24度</t>
+  </si>
+  <si>
+    <t>窗帘</t>
+  </si>
+  <si>
+    <t>25度</t>
+  </si>
+  <si>
+    <t>26度</t>
+  </si>
+  <si>
+    <t>工作2区</t>
+  </si>
+  <si>
+    <t>27度</t>
+  </si>
+  <si>
+    <t>28度</t>
+  </si>
+  <si>
+    <t>西侧窗帘</t>
+  </si>
+  <si>
+    <t>低档</t>
+  </si>
+  <si>
+    <t>不支持</t>
+  </si>
+  <si>
+    <t>中档</t>
+  </si>
+  <si>
+    <t>东侧窗帘</t>
+  </si>
+  <si>
+    <t>中高档</t>
+  </si>
+  <si>
+    <t>工作3区</t>
+  </si>
+  <si>
+    <t>高档</t>
+  </si>
+  <si>
+    <t>制冷</t>
+  </si>
+  <si>
+    <t>送风</t>
+  </si>
+  <si>
+    <t>拼控&amp;音频&amp;坐席台</t>
+  </si>
+  <si>
+    <t>除湿</t>
+  </si>
+  <si>
+    <t>制热</t>
+  </si>
+  <si>
+    <t>工作4区</t>
+  </si>
+  <si>
+    <t>拼控</t>
+  </si>
+  <si>
+    <t>可视化系统</t>
+  </si>
+  <si>
+    <t>显示可视化系统</t>
+  </si>
+  <si>
+    <t>2号</t>
+  </si>
+  <si>
+    <t>大屏前东侧空调</t>
+  </si>
+  <si>
+    <t>监控界面</t>
+  </si>
+  <si>
+    <t>显示监控界面</t>
+  </si>
+  <si>
+    <t>巡航界面（数智人）</t>
+  </si>
+  <si>
+    <t>显示巡航界面（数智人）</t>
+  </si>
+  <si>
+    <t>音频</t>
+  </si>
+  <si>
+    <t>高音</t>
+  </si>
+  <si>
+    <t>不通</t>
+  </si>
+  <si>
+    <t>中音</t>
+  </si>
+  <si>
+    <t>北排灯光</t>
+  </si>
+  <si>
+    <t>低音</t>
+  </si>
+  <si>
+    <t>坐席台灯带</t>
+  </si>
+  <si>
+    <t>南排灯光</t>
+  </si>
+  <si>
+    <t>参观台1区空调</t>
+  </si>
+  <si>
+    <t>参观台西侧空调</t>
+  </si>
+  <si>
+    <t>合二为一</t>
+  </si>
+  <si>
+    <t>参观台2区空调</t>
+  </si>
+  <si>
+    <t>参观台东侧空调</t>
+  </si>
+  <si>
+    <t>东侧灯带</t>
+  </si>
+  <si>
+    <t>东北侧灯带</t>
+  </si>
+  <si>
+    <t>东南侧灯带</t>
+  </si>
+  <si>
+    <t>东侧曲线灯带</t>
+  </si>
+  <si>
+    <t>西侧灯带</t>
+  </si>
+  <si>
+    <t>西北侧灯带</t>
+  </si>
+  <si>
+    <t>西南侧灯带</t>
+  </si>
+  <si>
+    <t>西侧曲线灯带</t>
+  </si>
+  <si>
+    <t>参观台</t>
+  </si>
+  <si>
+    <t>参观台顶部灯带</t>
+  </si>
+  <si>
+    <t>参观台后墙灯带</t>
+  </si>
+  <si>
+    <t>休息区</t>
+  </si>
+  <si>
+    <t>休息区柱子灯带</t>
+  </si>
+  <si>
     <t>全部</t>
-  </si>
-  <si>
-    <t>打开灯光</t>
-  </si>
-  <si>
-    <t>西门</t>
-  </si>
-  <si>
-    <t>打开</t>
-  </si>
-  <si>
-    <t>关闭空调</t>
-  </si>
-  <si>
-    <t>关闭灯光</t>
-  </si>
-  <si>
-    <t>东门</t>
-  </si>
-  <si>
-    <t>18度</t>
-  </si>
-  <si>
-    <t>轻亮</t>
-  </si>
-  <si>
-    <t>四楼西门</t>
-  </si>
-  <si>
-    <t>19度</t>
-  </si>
-  <si>
-    <t>中亮</t>
-  </si>
-  <si>
-    <t>四楼东门</t>
-  </si>
-  <si>
-    <t>20度</t>
-  </si>
-  <si>
-    <t>最亮</t>
-  </si>
-  <si>
-    <t>五楼西门</t>
-  </si>
-  <si>
-    <t>21度</t>
-  </si>
-  <si>
-    <t>工作1区</t>
-  </si>
-  <si>
-    <t>五楼东门</t>
-  </si>
-  <si>
-    <t>22度</t>
-  </si>
-  <si>
-    <t>23度</t>
-  </si>
-  <si>
-    <t>24度</t>
-  </si>
-  <si>
-    <t>窗帘</t>
-  </si>
-  <si>
-    <t>25度</t>
-  </si>
-  <si>
-    <t>26度</t>
-  </si>
-  <si>
-    <t>工作2区</t>
-  </si>
-  <si>
-    <t>27度</t>
-  </si>
-  <si>
-    <t>关闭</t>
-  </si>
-  <si>
-    <t>28度</t>
-  </si>
-  <si>
-    <t>西侧窗帘</t>
-  </si>
-  <si>
-    <t>低档</t>
-  </si>
-  <si>
-    <t>不支持</t>
-  </si>
-  <si>
-    <t>中档</t>
-  </si>
-  <si>
-    <t>东侧窗帘</t>
-  </si>
-  <si>
-    <t>中高档</t>
-  </si>
-  <si>
-    <t>工作3区</t>
-  </si>
-  <si>
-    <t>高档</t>
-  </si>
-  <si>
-    <t>制冷</t>
-  </si>
-  <si>
-    <t>送风</t>
-  </si>
-  <si>
-    <t>拼控&amp;音频&amp;坐席台</t>
-  </si>
-  <si>
-    <t>除湿</t>
-  </si>
-  <si>
-    <t>制热</t>
-  </si>
-  <si>
-    <t>工作4区</t>
-  </si>
-  <si>
-    <t>拼控</t>
-  </si>
-  <si>
-    <t>可视化系统</t>
-  </si>
-  <si>
-    <t>显示可视化系统</t>
-  </si>
-  <si>
-    <t>2号</t>
-  </si>
-  <si>
-    <t>大屏前东侧空调</t>
-  </si>
-  <si>
-    <t>监控界面</t>
-  </si>
-  <si>
-    <t>显示监控界面</t>
-  </si>
-  <si>
-    <t>巡航界面（数智人）</t>
-  </si>
-  <si>
-    <t>显示巡航界面（数智人）</t>
-  </si>
-  <si>
-    <t>音频</t>
-  </si>
-  <si>
-    <t>高音</t>
-  </si>
-  <si>
-    <t>不通</t>
-  </si>
-  <si>
-    <t>中音</t>
-  </si>
-  <si>
-    <t>北排</t>
-  </si>
-  <si>
-    <t>低音</t>
-  </si>
-  <si>
-    <t>坐席台灯带</t>
-  </si>
-  <si>
-    <t>南排</t>
-  </si>
-  <si>
-    <t>参观台1区空调</t>
-  </si>
-  <si>
-    <t>参观台西侧空调</t>
-  </si>
-  <si>
-    <t>合二为一</t>
-  </si>
-  <si>
-    <t>参观台2区空调</t>
-  </si>
-  <si>
-    <t>参观台东侧空调</t>
-  </si>
-  <si>
-    <t>东侧灯带</t>
-  </si>
-  <si>
-    <t>东北侧灯带</t>
-  </si>
-  <si>
-    <t>东南侧灯带</t>
-  </si>
-  <si>
-    <t>东侧曲线灯带</t>
-  </si>
-  <si>
-    <t>西侧灯带</t>
-  </si>
-  <si>
-    <t>西北侧灯带</t>
-  </si>
-  <si>
-    <t>西南侧灯带</t>
-  </si>
-  <si>
-    <t>西侧曲线灯带</t>
-  </si>
-  <si>
-    <t>参观台</t>
-  </si>
-  <si>
-    <t>参观台顶部灯带</t>
-  </si>
-  <si>
-    <t>参观台后墙灯带</t>
-  </si>
-  <si>
-    <t>休息区</t>
-  </si>
-  <si>
-    <t>休息区柱子灯带</t>
   </si>
   <si>
     <t>灯光模式</t>
@@ -398,9 +389,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -470,23 +461,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -508,6 +485,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -516,31 +500,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -569,15 +531,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -599,14 +582,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -677,25 +668,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -713,6 +686,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -725,19 +722,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -749,25 +746,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -785,7 +764,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -797,67 +848,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1082,26 +1073,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1117,41 +1088,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1174,156 +1115,206 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1777,8 +1768,8 @@
   </sheetPr>
   <dimension ref="A1:X129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K69" sqref="K69:K74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75"/>
@@ -1941,7 +1932,7 @@
         <v>17</v>
       </c>
       <c r="M4" s="21" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N4" s="21"/>
       <c r="O4" s="21">
@@ -1955,10 +1946,10 @@
       </c>
       <c r="R4" s="5"/>
       <c r="S4" s="32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T4" s="23" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="U4" s="23"/>
       <c r="V4" s="23">
@@ -1977,7 +1968,7 @@
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10">
@@ -1993,7 +1984,7 @@
       <c r="K5" s="20"/>
       <c r="L5" s="20"/>
       <c r="M5" s="23" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N5" s="23"/>
       <c r="O5" s="23">
@@ -2007,10 +1998,10 @@
       </c>
       <c r="R5" s="5"/>
       <c r="S5" s="32" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="T5" s="23" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="U5" s="23"/>
       <c r="V5" s="23">
@@ -2029,7 +2020,7 @@
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="10">
@@ -2045,7 +2036,7 @@
       <c r="K6" s="20"/>
       <c r="L6" s="20"/>
       <c r="M6" s="23" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N6" s="23"/>
       <c r="O6" s="23">
@@ -2059,10 +2050,10 @@
       </c>
       <c r="R6" s="5"/>
       <c r="S6" s="32" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="T6" s="23" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="U6" s="23"/>
       <c r="V6" s="23">
@@ -2081,7 +2072,7 @@
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="10">
@@ -2097,7 +2088,7 @@
       <c r="K7" s="20"/>
       <c r="L7" s="20"/>
       <c r="M7" s="23" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N7" s="23"/>
       <c r="O7" s="23">
@@ -2111,10 +2102,10 @@
       </c>
       <c r="R7" s="5"/>
       <c r="S7" s="32" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="T7" s="23" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="U7" s="23"/>
       <c r="V7" s="23">
@@ -2133,7 +2124,7 @@
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10">
@@ -2149,7 +2140,7 @@
       <c r="K8" s="20"/>
       <c r="L8" s="20"/>
       <c r="M8" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N8" s="23"/>
       <c r="O8" s="23">
@@ -2163,10 +2154,10 @@
       </c>
       <c r="R8" s="5"/>
       <c r="S8" s="32" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="T8" s="23" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="U8" s="23"/>
       <c r="V8" s="23">
@@ -2179,13 +2170,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" ht="13.5" spans="1:24">
+    <row r="9" spans="1:24">
       <c r="A9" s="5"/>
       <c r="B9" s="9"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10">
@@ -2199,13 +2190,13 @@
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="20" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L9" s="20" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="23" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N9" s="23"/>
       <c r="O9" s="23">
@@ -2219,10 +2210,10 @@
       </c>
       <c r="R9" s="5"/>
       <c r="S9" s="32" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="T9" s="23" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="U9" s="23"/>
       <c r="V9" s="23">
@@ -2235,13 +2226,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" ht="13.5" spans="1:24">
+    <row r="10" spans="1:24">
       <c r="A10" s="5"/>
       <c r="B10" s="9"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10">
@@ -2257,7 +2248,7 @@
       <c r="K10" s="20"/>
       <c r="L10" s="20"/>
       <c r="M10" s="23" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N10" s="23"/>
       <c r="O10" s="23">
@@ -2283,7 +2274,7 @@
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10">
@@ -2299,7 +2290,7 @@
       <c r="K11" s="20"/>
       <c r="L11" s="20"/>
       <c r="M11" s="23" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N11" s="23"/>
       <c r="O11" s="23">
@@ -2325,7 +2316,7 @@
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10">
@@ -2341,7 +2332,7 @@
       <c r="K12" s="20"/>
       <c r="L12" s="20"/>
       <c r="M12" s="23" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N12" s="23"/>
       <c r="O12" s="23">
@@ -2355,7 +2346,7 @@
       </c>
       <c r="R12" s="5"/>
       <c r="S12" s="25" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="T12" s="25"/>
       <c r="U12" s="25"/>
@@ -2369,7 +2360,7 @@
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10">
@@ -2385,7 +2376,7 @@
       <c r="K13" s="20"/>
       <c r="L13" s="20"/>
       <c r="M13" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N13" s="23"/>
       <c r="O13" s="23">
@@ -2417,13 +2408,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" ht="13.5" spans="1:24">
+    <row r="14" spans="1:24">
       <c r="A14" s="5"/>
       <c r="B14" s="9"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="10">
@@ -2437,13 +2428,13 @@
       </c>
       <c r="J14" s="5"/>
       <c r="K14" s="20" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L14" s="20" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="23" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N14" s="23"/>
       <c r="O14" s="23">
@@ -2457,10 +2448,10 @@
       </c>
       <c r="R14" s="5"/>
       <c r="S14" s="20" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="T14" s="23" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="U14" s="23"/>
       <c r="V14" s="23">
@@ -2473,13 +2464,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" ht="13.5" spans="1:24">
+    <row r="15" spans="1:24">
       <c r="A15" s="5"/>
       <c r="B15" s="9"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="10">
@@ -2495,7 +2486,7 @@
       <c r="K15" s="20"/>
       <c r="L15" s="20"/>
       <c r="M15" s="23" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N15" s="23"/>
       <c r="O15" s="23">
@@ -2510,7 +2501,7 @@
       <c r="R15" s="5"/>
       <c r="S15" s="20"/>
       <c r="T15" s="23" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="U15" s="23"/>
       <c r="V15" s="23">
@@ -2529,7 +2520,7 @@
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10">
@@ -2545,7 +2536,7 @@
       <c r="K16" s="20"/>
       <c r="L16" s="20"/>
       <c r="M16" s="23" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N16" s="23"/>
       <c r="O16" s="23">
@@ -2559,10 +2550,10 @@
       </c>
       <c r="R16" s="5"/>
       <c r="S16" s="20" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="T16" s="23" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="U16" s="23"/>
       <c r="V16" s="23">
@@ -2581,7 +2572,7 @@
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="12" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F17" s="12"/>
       <c r="G17" s="12">
@@ -2591,13 +2582,13 @@
         <v>13014</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J17" s="5"/>
       <c r="K17" s="20"/>
       <c r="L17" s="20"/>
       <c r="M17" s="23" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N17" s="23"/>
       <c r="O17" s="23">
@@ -2612,7 +2603,7 @@
       <c r="R17" s="5"/>
       <c r="S17" s="20"/>
       <c r="T17" s="23" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="U17" s="23"/>
       <c r="V17" s="23">
@@ -2631,7 +2622,7 @@
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="12" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F18" s="12"/>
       <c r="G18" s="12">
@@ -2641,13 +2632,13 @@
         <v>13015</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J18" s="5"/>
       <c r="K18" s="20"/>
       <c r="L18" s="20"/>
       <c r="M18" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N18" s="23"/>
       <c r="O18" s="23">
@@ -2661,10 +2652,10 @@
       </c>
       <c r="R18" s="5"/>
       <c r="S18" s="20" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="T18" s="23" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="U18" s="23"/>
       <c r="V18" s="23">
@@ -2677,13 +2668,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" ht="13.5" spans="1:24">
+    <row r="19" spans="1:24">
       <c r="A19" s="5"/>
       <c r="B19" s="9"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
       <c r="E19" s="12" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F19" s="12"/>
       <c r="G19" s="12">
@@ -2693,17 +2684,17 @@
         <v>13016</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J19" s="5"/>
       <c r="K19" s="20" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="L19" s="20" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="23" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N19" s="23"/>
       <c r="O19" s="23">
@@ -2718,7 +2709,7 @@
       <c r="R19" s="5"/>
       <c r="S19" s="20"/>
       <c r="T19" s="23" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="U19" s="23"/>
       <c r="V19" s="23">
@@ -2731,13 +2722,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" ht="13.5" spans="1:24">
+    <row r="20" spans="1:24">
       <c r="A20" s="5"/>
       <c r="B20" s="9"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
       <c r="E20" s="12" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F20" s="12"/>
       <c r="G20" s="12">
@@ -2747,13 +2738,13 @@
         <v>13017</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J20" s="5"/>
       <c r="K20" s="20"/>
       <c r="L20" s="20"/>
       <c r="M20" s="23" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N20" s="23"/>
       <c r="O20" s="23">
@@ -2779,7 +2770,7 @@
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
       <c r="E21" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="10">
@@ -2795,7 +2786,7 @@
       <c r="K21" s="20"/>
       <c r="L21" s="20"/>
       <c r="M21" s="23" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N21" s="23"/>
       <c r="O21" s="23">
@@ -2821,7 +2812,7 @@
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="10">
@@ -2837,7 +2828,7 @@
       <c r="K22" s="20"/>
       <c r="L22" s="20"/>
       <c r="M22" s="23" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N22" s="23"/>
       <c r="O22" s="23">
@@ -2851,7 +2842,7 @@
       </c>
       <c r="R22" s="5"/>
       <c r="S22" s="25" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="T22" s="25"/>
       <c r="U22" s="25"/>
@@ -2865,7 +2856,7 @@
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
       <c r="E23" s="10" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10">
@@ -2881,7 +2872,7 @@
       <c r="K23" s="20"/>
       <c r="L23" s="20"/>
       <c r="M23" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N23" s="23"/>
       <c r="O23" s="23">
@@ -2913,13 +2904,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" ht="13.5" spans="1:24">
+    <row r="24" spans="1:24">
       <c r="A24" s="5"/>
       <c r="B24" s="9"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
       <c r="E24" s="13" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F24" s="13"/>
       <c r="G24" s="13">
@@ -2929,17 +2920,17 @@
         <v>13021</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J24" s="5"/>
       <c r="K24" s="20" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="L24" s="20" t="s">
         <v>17</v>
       </c>
       <c r="M24" s="23" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N24" s="23"/>
       <c r="O24" s="23">
@@ -2953,13 +2944,13 @@
       </c>
       <c r="R24" s="5"/>
       <c r="S24" s="20" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="T24" s="23" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="U24" s="23" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="V24" s="23">
         <v>3001</v>
@@ -2977,10 +2968,10 @@
         <v>11</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>14</v>
@@ -2999,7 +2990,7 @@
       <c r="K25" s="20"/>
       <c r="L25" s="20"/>
       <c r="M25" s="23" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N25" s="23"/>
       <c r="O25" s="23">
@@ -3014,10 +3005,10 @@
       <c r="R25" s="5"/>
       <c r="S25" s="20"/>
       <c r="T25" s="23" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="U25" s="23" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="V25" s="23">
         <v>3002</v>
@@ -3029,13 +3020,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" ht="13.5" spans="1:24">
+    <row r="26" spans="1:24">
       <c r="A26" s="5"/>
       <c r="B26" s="9"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
       <c r="E26" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="10">
@@ -3051,7 +3042,7 @@
       <c r="K26" s="20"/>
       <c r="L26" s="20"/>
       <c r="M26" s="23" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N26" s="23"/>
       <c r="O26" s="23">
@@ -3066,10 +3057,10 @@
       <c r="R26" s="5"/>
       <c r="S26" s="20"/>
       <c r="T26" s="23" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="U26" s="23" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="V26" s="23">
         <v>3003</v>
@@ -3087,7 +3078,7 @@
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
       <c r="E27" s="10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="10">
@@ -3103,7 +3094,7 @@
       <c r="K27" s="20"/>
       <c r="L27" s="20"/>
       <c r="M27" s="23" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N27" s="23"/>
       <c r="O27" s="23">
@@ -3117,10 +3108,10 @@
       </c>
       <c r="R27" s="5"/>
       <c r="S27" s="34" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="T27" s="35" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="U27" s="35"/>
       <c r="V27" s="35">
@@ -3128,7 +3119,7 @@
       </c>
       <c r="W27" s="35"/>
       <c r="X27" s="36" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" ht="13.5" spans="1:24">
@@ -3137,7 +3128,7 @@
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
       <c r="E28" s="10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10">
@@ -3153,7 +3144,7 @@
       <c r="K28" s="20"/>
       <c r="L28" s="20"/>
       <c r="M28" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N28" s="23"/>
       <c r="O28" s="23">
@@ -3168,7 +3159,7 @@
       <c r="R28" s="5"/>
       <c r="S28" s="34"/>
       <c r="T28" s="35" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="U28" s="35"/>
       <c r="V28" s="35">
@@ -3176,16 +3167,16 @@
       </c>
       <c r="W28" s="35"/>
       <c r="X28" s="36" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="29" ht="13.5" spans="1:24">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24">
       <c r="A29" s="5"/>
       <c r="B29" s="9"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
       <c r="E29" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="10">
@@ -3199,13 +3190,13 @@
       </c>
       <c r="J29" s="5"/>
       <c r="K29" s="20" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L29" s="20" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="M29" s="23" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N29" s="23"/>
       <c r="O29" s="23">
@@ -3220,7 +3211,7 @@
       <c r="R29" s="5"/>
       <c r="S29" s="34"/>
       <c r="T29" s="35" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="U29" s="35"/>
       <c r="V29" s="35">
@@ -3228,16 +3219,16 @@
       </c>
       <c r="W29" s="35"/>
       <c r="X29" s="36" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="30" ht="13.5" spans="1:24">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24">
       <c r="A30" s="5"/>
       <c r="B30" s="9"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
       <c r="E30" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="10">
@@ -3253,7 +3244,7 @@
       <c r="K30" s="20"/>
       <c r="L30" s="20"/>
       <c r="M30" s="23" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N30" s="23"/>
       <c r="O30" s="23">
@@ -3267,10 +3258,10 @@
       </c>
       <c r="R30" s="5"/>
       <c r="S30" s="34" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="T30" s="35" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="U30" s="35"/>
       <c r="V30" s="35">
@@ -3278,7 +3269,7 @@
       </c>
       <c r="W30" s="35"/>
       <c r="X30" s="36" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" ht="13.5" spans="1:24">
@@ -3287,7 +3278,7 @@
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
       <c r="E31" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="10">
@@ -3303,7 +3294,7 @@
       <c r="K31" s="20"/>
       <c r="L31" s="20"/>
       <c r="M31" s="23" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N31" s="23"/>
       <c r="O31" s="23">
@@ -3318,7 +3309,7 @@
       <c r="R31" s="5"/>
       <c r="S31" s="34"/>
       <c r="T31" s="35" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="U31" s="35"/>
       <c r="V31" s="35">
@@ -3326,7 +3317,7 @@
       </c>
       <c r="W31" s="35"/>
       <c r="X31" s="36" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" ht="13.5" spans="1:24">
@@ -3335,7 +3326,7 @@
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
       <c r="E32" s="10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F32" s="10"/>
       <c r="G32" s="10">
@@ -3351,7 +3342,7 @@
       <c r="K32" s="20"/>
       <c r="L32" s="20"/>
       <c r="M32" s="23" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N32" s="23"/>
       <c r="O32" s="23">
@@ -3377,7 +3368,7 @@
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
       <c r="E33" s="10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F33" s="10"/>
       <c r="G33" s="10">
@@ -3393,7 +3384,7 @@
       <c r="K33" s="20"/>
       <c r="L33" s="20"/>
       <c r="M33" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N33" s="23"/>
       <c r="O33" s="23">
@@ -3413,13 +3404,13 @@
       <c r="W33" s="5"/>
       <c r="X33" s="5"/>
     </row>
-    <row r="34" ht="13.5" spans="1:24">
+    <row r="34" spans="1:24">
       <c r="A34" s="5"/>
       <c r="B34" s="9"/>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
       <c r="E34" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F34" s="10"/>
       <c r="G34" s="10">
@@ -3433,13 +3424,13 @@
       </c>
       <c r="J34" s="5"/>
       <c r="K34" s="20" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L34" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="M34" s="23" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N34" s="23"/>
       <c r="O34" s="23">
@@ -3459,13 +3450,13 @@
       <c r="W34" s="5"/>
       <c r="X34" s="5"/>
     </row>
-    <row r="35" ht="13.5" spans="1:24">
+    <row r="35" spans="1:24">
       <c r="A35" s="5"/>
       <c r="B35" s="9"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
       <c r="E35" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F35" s="10"/>
       <c r="G35" s="10">
@@ -3481,7 +3472,7 @@
       <c r="K35" s="20"/>
       <c r="L35" s="20"/>
       <c r="M35" s="23" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N35" s="23"/>
       <c r="O35" s="23">
@@ -3507,7 +3498,7 @@
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
       <c r="E36" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="10">
@@ -3523,7 +3514,7 @@
       <c r="K36" s="20"/>
       <c r="L36" s="20"/>
       <c r="M36" s="23" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N36" s="23"/>
       <c r="O36" s="23">
@@ -3549,7 +3540,7 @@
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="10">
@@ -3565,7 +3556,7 @@
       <c r="K37" s="20"/>
       <c r="L37" s="20"/>
       <c r="M37" s="23" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N37" s="23"/>
       <c r="O37" s="23">
@@ -3591,7 +3582,7 @@
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
       <c r="E38" s="12" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F38" s="12"/>
       <c r="G38" s="12">
@@ -3601,13 +3592,13 @@
         <v>13035</v>
       </c>
       <c r="I38" s="13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J38" s="5"/>
       <c r="K38" s="20"/>
       <c r="L38" s="20"/>
       <c r="M38" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N38" s="23"/>
       <c r="O38" s="23">
@@ -3627,13 +3618,13 @@
       <c r="W38" s="5"/>
       <c r="X38" s="5"/>
     </row>
-    <row r="39" ht="13.5" spans="1:24">
+    <row r="39" spans="1:24">
       <c r="A39" s="5"/>
       <c r="B39" s="9"/>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
       <c r="E39" s="12" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F39" s="12"/>
       <c r="G39" s="12">
@@ -3643,17 +3634,17 @@
         <v>13036</v>
       </c>
       <c r="I39" s="13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J39" s="5"/>
       <c r="K39" s="20" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L39" s="20" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="M39" s="23" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N39" s="23"/>
       <c r="O39" s="23">
@@ -3673,13 +3664,13 @@
       <c r="W39" s="5"/>
       <c r="X39" s="5"/>
     </row>
-    <row r="40" ht="13.5" spans="1:24">
+    <row r="40" spans="1:24">
       <c r="A40" s="5"/>
       <c r="B40" s="9"/>
       <c r="C40" s="10"/>
       <c r="D40" s="10"/>
       <c r="E40" s="12" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F40" s="12"/>
       <c r="G40" s="12">
@@ -3689,13 +3680,13 @@
         <v>13037</v>
       </c>
       <c r="I40" s="13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J40" s="5"/>
       <c r="K40" s="20"/>
       <c r="L40" s="20"/>
       <c r="M40" s="23" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N40" s="23"/>
       <c r="O40" s="23">
@@ -3721,7 +3712,7 @@
       <c r="C41" s="10"/>
       <c r="D41" s="10"/>
       <c r="E41" s="12" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F41" s="12"/>
       <c r="G41" s="12">
@@ -3731,13 +3722,13 @@
         <v>13038</v>
       </c>
       <c r="I41" s="13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J41" s="5"/>
       <c r="K41" s="20"/>
       <c r="L41" s="20"/>
       <c r="M41" s="23" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N41" s="23"/>
       <c r="O41" s="23">
@@ -3763,7 +3754,7 @@
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
       <c r="E42" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F42" s="10"/>
       <c r="G42" s="10">
@@ -3779,7 +3770,7 @@
       <c r="K42" s="20"/>
       <c r="L42" s="20"/>
       <c r="M42" s="23" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N42" s="23"/>
       <c r="O42" s="23">
@@ -3805,7 +3796,7 @@
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
       <c r="E43" s="10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F43" s="10"/>
       <c r="G43" s="10">
@@ -3821,7 +3812,7 @@
       <c r="K43" s="20"/>
       <c r="L43" s="20"/>
       <c r="M43" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N43" s="23"/>
       <c r="O43" s="23">
@@ -3841,13 +3832,13 @@
       <c r="W43" s="5"/>
       <c r="X43" s="5"/>
     </row>
-    <row r="44" ht="13.5" spans="1:24">
+    <row r="44" spans="1:24">
       <c r="A44" s="5"/>
       <c r="B44" s="9"/>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
       <c r="E44" s="10" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F44" s="10"/>
       <c r="G44" s="10">
@@ -3861,13 +3852,13 @@
       </c>
       <c r="J44" s="5"/>
       <c r="K44" s="20" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L44" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="M44" s="23" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N44" s="23"/>
       <c r="O44" s="23">
@@ -3887,13 +3878,13 @@
       <c r="W44" s="5"/>
       <c r="X44" s="5"/>
     </row>
-    <row r="45" ht="13.5" spans="1:24">
+    <row r="45" spans="1:24">
       <c r="A45" s="5"/>
       <c r="B45" s="9"/>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
       <c r="E45" s="13" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F45" s="13"/>
       <c r="G45" s="13">
@@ -3903,13 +3894,13 @@
         <v>13042</v>
       </c>
       <c r="I45" s="13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J45" s="5"/>
       <c r="K45" s="20"/>
       <c r="L45" s="20"/>
       <c r="M45" s="23" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N45" s="23"/>
       <c r="O45" s="23">
@@ -3929,16 +3920,16 @@
       <c r="W45" s="5"/>
       <c r="X45" s="5"/>
     </row>
-    <row r="46" ht="13.5" spans="1:24">
+    <row r="46" spans="1:24">
       <c r="A46" s="5"/>
       <c r="B46" s="9" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C46" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E46" s="10" t="s">
         <v>14</v>
@@ -3954,12 +3945,12 @@
         <v>15</v>
       </c>
       <c r="J46" s="24" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="K46" s="20"/>
       <c r="L46" s="20"/>
       <c r="M46" s="23" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N46" s="23"/>
       <c r="O46" s="23">
@@ -3979,13 +3970,13 @@
       <c r="W46" s="5"/>
       <c r="X46" s="5"/>
     </row>
-    <row r="47" ht="13.5" spans="1:24">
+    <row r="47" spans="1:24">
       <c r="A47" s="5"/>
       <c r="B47" s="9"/>
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
       <c r="E47" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F47" s="10"/>
       <c r="G47" s="10">
@@ -4001,7 +3992,7 @@
       <c r="K47" s="20"/>
       <c r="L47" s="20"/>
       <c r="M47" s="23" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N47" s="23"/>
       <c r="O47" s="23">
@@ -4027,7 +4018,7 @@
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F48" s="10"/>
       <c r="G48" s="10">
@@ -4043,7 +4034,7 @@
       <c r="K48" s="20"/>
       <c r="L48" s="20"/>
       <c r="M48" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N48" s="23"/>
       <c r="O48" s="23">
@@ -4063,13 +4054,13 @@
       <c r="W48" s="5"/>
       <c r="X48" s="5"/>
     </row>
-    <row r="49" ht="13.5" spans="1:24">
+    <row r="49" spans="1:24">
       <c r="A49" s="5"/>
       <c r="B49" s="9"/>
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
       <c r="E49" s="10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F49" s="10"/>
       <c r="G49" s="10">
@@ -4083,13 +4074,13 @@
       </c>
       <c r="J49" s="24"/>
       <c r="K49" s="20" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="L49" s="20" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="M49" s="23" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N49" s="23"/>
       <c r="O49" s="23">
@@ -4109,13 +4100,13 @@
       <c r="W49" s="5"/>
       <c r="X49" s="5"/>
     </row>
-    <row r="50" ht="13.5" spans="1:24">
+    <row r="50" spans="1:24">
       <c r="A50" s="5"/>
       <c r="B50" s="9"/>
       <c r="C50" s="10"/>
       <c r="D50" s="10"/>
       <c r="E50" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F50" s="10"/>
       <c r="G50" s="10">
@@ -4131,7 +4122,7 @@
       <c r="K50" s="20"/>
       <c r="L50" s="20"/>
       <c r="M50" s="23" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N50" s="23"/>
       <c r="O50" s="23">
@@ -4157,7 +4148,7 @@
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
       <c r="E51" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F51" s="10"/>
       <c r="G51" s="10">
@@ -4173,7 +4164,7 @@
       <c r="K51" s="20"/>
       <c r="L51" s="20"/>
       <c r="M51" s="23" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N51" s="23"/>
       <c r="O51" s="23">
@@ -4199,7 +4190,7 @@
       <c r="C52" s="10"/>
       <c r="D52" s="10"/>
       <c r="E52" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F52" s="10"/>
       <c r="G52" s="10">
@@ -4215,7 +4206,7 @@
       <c r="K52" s="20"/>
       <c r="L52" s="20"/>
       <c r="M52" s="23" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N52" s="23"/>
       <c r="O52" s="23">
@@ -4241,7 +4232,7 @@
       <c r="C53" s="10"/>
       <c r="D53" s="10"/>
       <c r="E53" s="10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F53" s="10"/>
       <c r="G53" s="10">
@@ -4257,7 +4248,7 @@
       <c r="K53" s="20"/>
       <c r="L53" s="20"/>
       <c r="M53" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N53" s="23"/>
       <c r="O53" s="23">
@@ -4277,13 +4268,13 @@
       <c r="W53" s="5"/>
       <c r="X53" s="5"/>
     </row>
-    <row r="54" ht="13.5" spans="1:24">
+    <row r="54" spans="1:24">
       <c r="A54" s="5"/>
       <c r="B54" s="9"/>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
       <c r="E54" s="10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F54" s="10"/>
       <c r="G54" s="10">
@@ -4297,13 +4288,13 @@
       </c>
       <c r="J54" s="24"/>
       <c r="K54" s="20" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="L54" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="M54" s="23" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N54" s="23"/>
       <c r="O54" s="23">
@@ -4323,13 +4314,13 @@
       <c r="W54" s="5"/>
       <c r="X54" s="5"/>
     </row>
-    <row r="55" ht="13.5" spans="1:24">
+    <row r="55" spans="1:24">
       <c r="A55" s="5"/>
       <c r="B55" s="9"/>
       <c r="C55" s="10"/>
       <c r="D55" s="10"/>
       <c r="E55" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F55" s="10"/>
       <c r="G55" s="10">
@@ -4345,7 +4336,7 @@
       <c r="K55" s="20"/>
       <c r="L55" s="20"/>
       <c r="M55" s="23" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N55" s="23"/>
       <c r="O55" s="23">
@@ -4371,7 +4362,7 @@
       <c r="C56" s="10"/>
       <c r="D56" s="10"/>
       <c r="E56" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F56" s="10"/>
       <c r="G56" s="10">
@@ -4387,7 +4378,7 @@
       <c r="K56" s="20"/>
       <c r="L56" s="20"/>
       <c r="M56" s="23" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N56" s="23"/>
       <c r="O56" s="23">
@@ -4413,7 +4404,7 @@
       <c r="C57" s="10"/>
       <c r="D57" s="10"/>
       <c r="E57" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F57" s="10"/>
       <c r="G57" s="10">
@@ -4429,7 +4420,7 @@
       <c r="K57" s="20"/>
       <c r="L57" s="20"/>
       <c r="M57" s="23" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N57" s="23"/>
       <c r="O57" s="23">
@@ -4455,7 +4446,7 @@
       <c r="C58" s="10"/>
       <c r="D58" s="10"/>
       <c r="E58" s="10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F58" s="10"/>
       <c r="G58" s="10">
@@ -4471,7 +4462,7 @@
       <c r="K58" s="20"/>
       <c r="L58" s="20"/>
       <c r="M58" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N58" s="23"/>
       <c r="O58" s="23">
@@ -4491,13 +4482,13 @@
       <c r="W58" s="5"/>
       <c r="X58" s="5"/>
     </row>
-    <row r="59" ht="13.5" spans="1:24">
+    <row r="59" spans="1:24">
       <c r="A59" s="5"/>
       <c r="B59" s="9"/>
       <c r="C59" s="10"/>
       <c r="D59" s="10"/>
       <c r="E59" s="10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F59" s="10"/>
       <c r="G59" s="10">
@@ -4511,13 +4502,13 @@
       </c>
       <c r="J59" s="24"/>
       <c r="K59" s="20" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="L59" s="20" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="M59" s="23" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N59" s="23"/>
       <c r="O59" s="23">
@@ -4537,13 +4528,13 @@
       <c r="W59" s="5"/>
       <c r="X59" s="5"/>
     </row>
-    <row r="60" ht="13.5" spans="1:24">
+    <row r="60" spans="1:24">
       <c r="A60" s="5"/>
       <c r="B60" s="9"/>
       <c r="C60" s="10"/>
       <c r="D60" s="10"/>
       <c r="E60" s="10" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F60" s="10"/>
       <c r="G60" s="10">
@@ -4559,7 +4550,7 @@
       <c r="K60" s="20"/>
       <c r="L60" s="20"/>
       <c r="M60" s="23" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N60" s="23"/>
       <c r="O60" s="23">
@@ -4585,7 +4576,7 @@
       <c r="C61" s="10"/>
       <c r="D61" s="10"/>
       <c r="E61" s="10" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F61" s="10"/>
       <c r="G61" s="10">
@@ -4601,7 +4592,7 @@
       <c r="K61" s="20"/>
       <c r="L61" s="20"/>
       <c r="M61" s="23" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N61" s="23"/>
       <c r="O61" s="23">
@@ -4627,7 +4618,7 @@
       <c r="C62" s="10"/>
       <c r="D62" s="10"/>
       <c r="E62" s="10" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F62" s="10"/>
       <c r="G62" s="10">
@@ -4643,7 +4634,7 @@
       <c r="K62" s="20"/>
       <c r="L62" s="20"/>
       <c r="M62" s="23" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N62" s="23"/>
       <c r="O62" s="23">
@@ -4669,7 +4660,7 @@
       <c r="C63" s="10"/>
       <c r="D63" s="10"/>
       <c r="E63" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F63" s="10"/>
       <c r="G63" s="10">
@@ -4685,7 +4676,7 @@
       <c r="K63" s="20"/>
       <c r="L63" s="20"/>
       <c r="M63" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N63" s="23"/>
       <c r="O63" s="23">
@@ -4705,13 +4696,13 @@
       <c r="W63" s="5"/>
       <c r="X63" s="5"/>
     </row>
-    <row r="64" ht="13.5" spans="1:24">
+    <row r="64" spans="1:24">
       <c r="A64" s="5"/>
       <c r="B64" s="9"/>
       <c r="C64" s="10"/>
       <c r="D64" s="10"/>
       <c r="E64" s="10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F64" s="10"/>
       <c r="G64" s="10">
@@ -4725,13 +4716,13 @@
       </c>
       <c r="J64" s="24"/>
       <c r="K64" s="20" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="L64" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="M64" s="23" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N64" s="23"/>
       <c r="O64" s="23">
@@ -4751,13 +4742,13 @@
       <c r="W64" s="5"/>
       <c r="X64" s="5"/>
     </row>
-    <row r="65" ht="13.5" spans="1:24">
+    <row r="65" spans="1:24">
       <c r="A65" s="5"/>
       <c r="B65" s="9"/>
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
       <c r="E65" s="10" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F65" s="10"/>
       <c r="G65" s="10">
@@ -4773,7 +4764,7 @@
       <c r="K65" s="20"/>
       <c r="L65" s="20"/>
       <c r="M65" s="23" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N65" s="23"/>
       <c r="O65" s="23">
@@ -4799,7 +4790,7 @@
       <c r="C66" s="10"/>
       <c r="D66" s="10"/>
       <c r="E66" s="10" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F66" s="10"/>
       <c r="G66" s="10">
@@ -4815,7 +4806,7 @@
       <c r="K66" s="20"/>
       <c r="L66" s="20"/>
       <c r="M66" s="23" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N66" s="23"/>
       <c r="O66" s="23">
@@ -4835,16 +4826,16 @@
       <c r="W66" s="5"/>
       <c r="X66" s="5"/>
     </row>
-    <row r="67" ht="13.5" spans="1:24">
+    <row r="67" spans="1:24">
       <c r="A67" s="5"/>
       <c r="B67" s="9" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C67" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E67" s="10" t="s">
         <v>14</v>
@@ -4860,12 +4851,12 @@
         <v>15</v>
       </c>
       <c r="J67" s="24" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="K67" s="20"/>
       <c r="L67" s="20"/>
       <c r="M67" s="23" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N67" s="23"/>
       <c r="O67" s="23">
@@ -4885,13 +4876,13 @@
       <c r="W67" s="5"/>
       <c r="X67" s="5"/>
     </row>
-    <row r="68" ht="13.5" spans="1:24">
+    <row r="68" spans="1:24">
       <c r="A68" s="5"/>
       <c r="B68" s="9"/>
       <c r="C68" s="10"/>
       <c r="D68" s="10"/>
       <c r="E68" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F68" s="10"/>
       <c r="G68" s="10">
@@ -4907,7 +4898,7 @@
       <c r="K68" s="20"/>
       <c r="L68" s="20"/>
       <c r="M68" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N68" s="23"/>
       <c r="O68" s="23">
@@ -4933,7 +4924,7 @@
       <c r="C69" s="10"/>
       <c r="D69" s="10"/>
       <c r="E69" s="10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F69" s="10"/>
       <c r="G69" s="10">
@@ -4947,13 +4938,13 @@
       </c>
       <c r="J69" s="24"/>
       <c r="K69" s="20" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="L69" s="20" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="M69" s="23" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="N69" s="23"/>
       <c r="O69" s="23">
@@ -4979,7 +4970,7 @@
       <c r="C70" s="10"/>
       <c r="D70" s="10"/>
       <c r="E70" s="10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F70" s="10"/>
       <c r="G70" s="10">
@@ -4995,7 +4986,7 @@
       <c r="K70" s="20"/>
       <c r="L70" s="20"/>
       <c r="M70" s="23" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N70" s="23"/>
       <c r="O70" s="23">
@@ -5021,7 +5012,7 @@
       <c r="C71" s="10"/>
       <c r="D71" s="10"/>
       <c r="E71" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F71" s="10"/>
       <c r="G71" s="10">
@@ -5036,10 +5027,10 @@
       <c r="J71" s="24"/>
       <c r="K71" s="20"/>
       <c r="L71" s="20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="M71" s="23" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="N71" s="23"/>
       <c r="O71" s="23">
@@ -5065,7 +5056,7 @@
       <c r="C72" s="10"/>
       <c r="D72" s="10"/>
       <c r="E72" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F72" s="10"/>
       <c r="G72" s="10">
@@ -5081,7 +5072,7 @@
       <c r="K72" s="20"/>
       <c r="L72" s="20"/>
       <c r="M72" s="23" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N72" s="23"/>
       <c r="O72" s="23">
@@ -5107,7 +5098,7 @@
       <c r="C73" s="10"/>
       <c r="D73" s="10"/>
       <c r="E73" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F73" s="10"/>
       <c r="G73" s="10">
@@ -5122,10 +5113,10 @@
       <c r="J73" s="24"/>
       <c r="K73" s="20"/>
       <c r="L73" s="20" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="M73" s="23" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="N73" s="23"/>
       <c r="O73" s="23">
@@ -5151,7 +5142,7 @@
       <c r="C74" s="10"/>
       <c r="D74" s="10"/>
       <c r="E74" s="10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F74" s="10"/>
       <c r="G74" s="10">
@@ -5167,7 +5158,7 @@
       <c r="K74" s="20"/>
       <c r="L74" s="20"/>
       <c r="M74" s="23" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N74" s="23"/>
       <c r="O74" s="23">
@@ -5193,7 +5184,7 @@
       <c r="C75" s="10"/>
       <c r="D75" s="10"/>
       <c r="E75" s="10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F75" s="10"/>
       <c r="G75" s="10">
@@ -5207,13 +5198,13 @@
       </c>
       <c r="J75" s="24"/>
       <c r="K75" s="20" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="L75" s="20" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M75" s="23" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="N75" s="23"/>
       <c r="O75" s="23">
@@ -5239,7 +5230,7 @@
       <c r="C76" s="10"/>
       <c r="D76" s="10"/>
       <c r="E76" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F76" s="10"/>
       <c r="G76" s="10">
@@ -5255,7 +5246,7 @@
       <c r="K76" s="20"/>
       <c r="L76" s="20"/>
       <c r="M76" s="23" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N76" s="23"/>
       <c r="O76" s="23">
@@ -5281,7 +5272,7 @@
       <c r="C77" s="10"/>
       <c r="D77" s="10"/>
       <c r="E77" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F77" s="10"/>
       <c r="G77" s="10">
@@ -5296,10 +5287,10 @@
       <c r="J77" s="24"/>
       <c r="K77" s="20"/>
       <c r="L77" s="20" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="M77" s="23" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="N77" s="23"/>
       <c r="O77" s="23">
@@ -5325,7 +5316,7 @@
       <c r="C78" s="10"/>
       <c r="D78" s="10"/>
       <c r="E78" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F78" s="10"/>
       <c r="G78" s="10">
@@ -5341,7 +5332,7 @@
       <c r="K78" s="20"/>
       <c r="L78" s="20"/>
       <c r="M78" s="23" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N78" s="23"/>
       <c r="O78" s="23">
@@ -5367,7 +5358,7 @@
       <c r="C79" s="10"/>
       <c r="D79" s="10"/>
       <c r="E79" s="10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F79" s="10"/>
       <c r="G79" s="10">
@@ -5382,10 +5373,10 @@
       <c r="J79" s="24"/>
       <c r="K79" s="20"/>
       <c r="L79" s="20" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="M79" s="23" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="N79" s="23"/>
       <c r="O79" s="23">
@@ -5411,7 +5402,7 @@
       <c r="C80" s="10"/>
       <c r="D80" s="10"/>
       <c r="E80" s="10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F80" s="10"/>
       <c r="G80" s="10">
@@ -5427,7 +5418,7 @@
       <c r="K80" s="20"/>
       <c r="L80" s="20"/>
       <c r="M80" s="23" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N80" s="23"/>
       <c r="O80" s="23">
@@ -5453,7 +5444,7 @@
       <c r="C81" s="10"/>
       <c r="D81" s="10"/>
       <c r="E81" s="10" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F81" s="10"/>
       <c r="G81" s="10">
@@ -5467,13 +5458,13 @@
       </c>
       <c r="J81" s="24"/>
       <c r="K81" s="20" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L81" s="20" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="M81" s="23" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="N81" s="23"/>
       <c r="O81" s="23">
@@ -5499,7 +5490,7 @@
       <c r="C82" s="10"/>
       <c r="D82" s="10"/>
       <c r="E82" s="10" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F82" s="10"/>
       <c r="G82" s="10">
@@ -5515,7 +5506,7 @@
       <c r="K82" s="20"/>
       <c r="L82" s="20"/>
       <c r="M82" s="23" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N82" s="23"/>
       <c r="O82" s="23">
@@ -5541,7 +5532,7 @@
       <c r="C83" s="10"/>
       <c r="D83" s="10"/>
       <c r="E83" s="10" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F83" s="10"/>
       <c r="G83" s="10">
@@ -5556,10 +5547,10 @@
       <c r="J83" s="24"/>
       <c r="K83" s="20"/>
       <c r="L83" s="20" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="M83" s="23" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="N83" s="23"/>
       <c r="O83" s="23">
@@ -5585,7 +5576,7 @@
       <c r="C84" s="10"/>
       <c r="D84" s="10"/>
       <c r="E84" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F84" s="10"/>
       <c r="G84" s="10">
@@ -5601,7 +5592,7 @@
       <c r="K84" s="20"/>
       <c r="L84" s="20"/>
       <c r="M84" s="23" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N84" s="23"/>
       <c r="O84" s="23">
@@ -5627,7 +5618,7 @@
       <c r="C85" s="10"/>
       <c r="D85" s="10"/>
       <c r="E85" s="10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F85" s="10"/>
       <c r="G85" s="10">
@@ -5641,13 +5632,13 @@
       </c>
       <c r="J85" s="24"/>
       <c r="K85" s="20" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="L85" s="20" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M85" s="23" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="N85" s="23"/>
       <c r="O85" s="23">
@@ -5673,7 +5664,7 @@
       <c r="C86" s="10"/>
       <c r="D86" s="10"/>
       <c r="E86" s="10" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F86" s="10"/>
       <c r="G86" s="10">
@@ -5689,7 +5680,7 @@
       <c r="K86" s="20"/>
       <c r="L86" s="20"/>
       <c r="M86" s="23" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N86" s="23"/>
       <c r="O86" s="23">
@@ -5715,7 +5706,7 @@
       <c r="C87" s="10"/>
       <c r="D87" s="10"/>
       <c r="E87" s="10" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F87" s="10"/>
       <c r="G87" s="10">
@@ -5729,13 +5720,13 @@
       </c>
       <c r="J87" s="24"/>
       <c r="K87" s="20" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="L87" s="20" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="M87" s="23" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="N87" s="23"/>
       <c r="O87" s="23">
@@ -5755,7 +5746,7 @@
       <c r="W87" s="5"/>
       <c r="X87" s="5"/>
     </row>
-    <row r="88" ht="13.5" spans="1:24">
+    <row r="88" spans="1:24">
       <c r="A88" s="5"/>
       <c r="B88" s="10" t="s">
         <v>16</v>
@@ -5764,7 +5755,7 @@
         <v>12</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E88" s="10" t="s">
         <v>14</v>
@@ -5783,7 +5774,7 @@
       <c r="K88" s="20"/>
       <c r="L88" s="20"/>
       <c r="M88" s="23" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="N88" s="23"/>
       <c r="O88" s="23">
@@ -5803,13 +5794,13 @@
       <c r="W88" s="5"/>
       <c r="X88" s="5"/>
     </row>
-    <row r="89" ht="13.5" spans="1:24">
+    <row r="89" spans="1:24">
       <c r="A89" s="5"/>
       <c r="B89" s="10"/>
       <c r="C89" s="10"/>
       <c r="D89" s="10"/>
       <c r="E89" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F89" s="10"/>
       <c r="G89" s="10">
@@ -5825,7 +5816,7 @@
       <c r="K89" s="20"/>
       <c r="L89" s="20"/>
       <c r="M89" s="23" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="N89" s="23"/>
       <c r="O89" s="23">
@@ -5851,7 +5842,7 @@
       <c r="C90" s="10"/>
       <c r="D90" s="10"/>
       <c r="E90" s="10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F90" s="10"/>
       <c r="G90" s="10">
@@ -5867,7 +5858,7 @@
       <c r="K90" s="20"/>
       <c r="L90" s="20"/>
       <c r="M90" s="23" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N90" s="23"/>
       <c r="O90" s="23">
@@ -5893,7 +5884,7 @@
       <c r="C91" s="10"/>
       <c r="D91" s="10"/>
       <c r="E91" s="10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F91" s="10"/>
       <c r="G91" s="10">
@@ -5909,7 +5900,7 @@
       <c r="K91" s="20"/>
       <c r="L91" s="20"/>
       <c r="M91" s="23" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N91" s="23"/>
       <c r="O91" s="23">
@@ -5935,7 +5926,7 @@
       <c r="C92" s="10"/>
       <c r="D92" s="10"/>
       <c r="E92" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F92" s="10"/>
       <c r="G92" s="10">
@@ -5951,7 +5942,7 @@
       <c r="K92" s="20"/>
       <c r="L92" s="20"/>
       <c r="M92" s="23" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N92" s="23"/>
       <c r="O92" s="23">
@@ -5977,7 +5968,7 @@
       <c r="C93" s="10"/>
       <c r="D93" s="10"/>
       <c r="E93" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F93" s="10"/>
       <c r="G93" s="10">
@@ -5993,7 +5984,7 @@
       <c r="K93" s="20"/>
       <c r="L93" s="20"/>
       <c r="M93" s="23" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N93" s="23"/>
       <c r="O93" s="23">
@@ -6019,7 +6010,7 @@
       <c r="C94" s="10"/>
       <c r="D94" s="10"/>
       <c r="E94" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F94" s="10"/>
       <c r="G94" s="10">
@@ -6053,7 +6044,7 @@
       <c r="C95" s="10"/>
       <c r="D95" s="10"/>
       <c r="E95" s="10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F95" s="10"/>
       <c r="G95" s="10">
@@ -6087,7 +6078,7 @@
       <c r="C96" s="10"/>
       <c r="D96" s="10"/>
       <c r="E96" s="10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F96" s="10"/>
       <c r="G96" s="10">
@@ -6121,7 +6112,7 @@
       <c r="C97" s="10"/>
       <c r="D97" s="10"/>
       <c r="E97" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F97" s="10"/>
       <c r="G97" s="10">
@@ -6155,7 +6146,7 @@
       <c r="C98" s="10"/>
       <c r="D98" s="10"/>
       <c r="E98" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F98" s="10"/>
       <c r="G98" s="10">
@@ -6189,7 +6180,7 @@
       <c r="C99" s="10"/>
       <c r="D99" s="10"/>
       <c r="E99" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F99" s="10"/>
       <c r="G99" s="10">
@@ -6223,7 +6214,7 @@
       <c r="C100" s="10"/>
       <c r="D100" s="10"/>
       <c r="E100" s="10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F100" s="10"/>
       <c r="G100" s="10">
@@ -6257,7 +6248,7 @@
       <c r="C101" s="10"/>
       <c r="D101" s="10"/>
       <c r="E101" s="10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F101" s="10"/>
       <c r="G101" s="10">
@@ -6291,7 +6282,7 @@
       <c r="C102" s="10"/>
       <c r="D102" s="10"/>
       <c r="E102" s="10" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F102" s="10"/>
       <c r="G102" s="10">
@@ -6325,7 +6316,7 @@
       <c r="C103" s="10"/>
       <c r="D103" s="10"/>
       <c r="E103" s="10" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F103" s="10"/>
       <c r="G103" s="10">
@@ -6359,7 +6350,7 @@
       <c r="C104" s="10"/>
       <c r="D104" s="10"/>
       <c r="E104" s="10" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F104" s="10"/>
       <c r="G104" s="10">
@@ -6393,7 +6384,7 @@
       <c r="C105" s="10"/>
       <c r="D105" s="10"/>
       <c r="E105" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F105" s="10"/>
       <c r="G105" s="10">
@@ -6427,7 +6418,7 @@
       <c r="C106" s="10"/>
       <c r="D106" s="10"/>
       <c r="E106" s="10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F106" s="10"/>
       <c r="G106" s="10">
@@ -6461,7 +6452,7 @@
       <c r="C107" s="10"/>
       <c r="D107" s="10"/>
       <c r="E107" s="10" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F107" s="10"/>
       <c r="G107" s="10">
@@ -6495,7 +6486,7 @@
       <c r="C108" s="10"/>
       <c r="D108" s="10"/>
       <c r="E108" s="10" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F108" s="10"/>
       <c r="G108" s="10">
@@ -6523,16 +6514,16 @@
       <c r="W108" s="5"/>
       <c r="X108" s="5"/>
     </row>
-    <row r="109" ht="13.5" spans="1:24">
+    <row r="109" spans="1:24">
       <c r="A109" s="5"/>
       <c r="B109" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E109" s="10" t="s">
         <v>14</v>
@@ -6563,13 +6554,13 @@
       <c r="W109" s="5"/>
       <c r="X109" s="5"/>
     </row>
-    <row r="110" ht="13.5" spans="1:24">
+    <row r="110" spans="1:24">
       <c r="A110" s="5"/>
       <c r="B110" s="10"/>
       <c r="C110" s="10"/>
       <c r="D110" s="10"/>
       <c r="E110" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F110" s="10"/>
       <c r="G110" s="10">
@@ -6603,7 +6594,7 @@
       <c r="C111" s="10"/>
       <c r="D111" s="10"/>
       <c r="E111" s="10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F111" s="10"/>
       <c r="G111" s="10">
@@ -6637,7 +6628,7 @@
       <c r="C112" s="10"/>
       <c r="D112" s="10"/>
       <c r="E112" s="10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F112" s="10"/>
       <c r="G112" s="10">
@@ -6671,7 +6662,7 @@
       <c r="C113" s="10"/>
       <c r="D113" s="10"/>
       <c r="E113" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F113" s="10"/>
       <c r="G113" s="10">
@@ -6705,7 +6696,7 @@
       <c r="C114" s="10"/>
       <c r="D114" s="10"/>
       <c r="E114" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F114" s="10"/>
       <c r="G114" s="10">
@@ -6739,7 +6730,7 @@
       <c r="C115" s="10"/>
       <c r="D115" s="10"/>
       <c r="E115" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F115" s="10"/>
       <c r="G115" s="10">
@@ -6773,7 +6764,7 @@
       <c r="C116" s="10"/>
       <c r="D116" s="10"/>
       <c r="E116" s="10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F116" s="10"/>
       <c r="G116" s="10">
@@ -6807,7 +6798,7 @@
       <c r="C117" s="10"/>
       <c r="D117" s="10"/>
       <c r="E117" s="10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F117" s="10"/>
       <c r="G117" s="10">
@@ -6841,7 +6832,7 @@
       <c r="C118" s="10"/>
       <c r="D118" s="10"/>
       <c r="E118" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F118" s="10"/>
       <c r="G118" s="10">
@@ -6875,7 +6866,7 @@
       <c r="C119" s="10"/>
       <c r="D119" s="10"/>
       <c r="E119" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F119" s="10"/>
       <c r="G119" s="10">
@@ -6909,7 +6900,7 @@
       <c r="C120" s="10"/>
       <c r="D120" s="10"/>
       <c r="E120" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F120" s="10"/>
       <c r="G120" s="10">
@@ -6943,7 +6934,7 @@
       <c r="C121" s="10"/>
       <c r="D121" s="10"/>
       <c r="E121" s="10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F121" s="10"/>
       <c r="G121" s="10">
@@ -6977,7 +6968,7 @@
       <c r="C122" s="10"/>
       <c r="D122" s="10"/>
       <c r="E122" s="10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F122" s="10"/>
       <c r="G122" s="10">
@@ -7011,7 +7002,7 @@
       <c r="C123" s="10"/>
       <c r="D123" s="10"/>
       <c r="E123" s="10" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F123" s="10"/>
       <c r="G123" s="10">
@@ -7045,7 +7036,7 @@
       <c r="C124" s="10"/>
       <c r="D124" s="10"/>
       <c r="E124" s="10" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F124" s="10"/>
       <c r="G124" s="10">
@@ -7079,7 +7070,7 @@
       <c r="C125" s="10"/>
       <c r="D125" s="10"/>
       <c r="E125" s="10" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F125" s="10"/>
       <c r="G125" s="10">
@@ -7113,7 +7104,7 @@
       <c r="C126" s="10"/>
       <c r="D126" s="10"/>
       <c r="E126" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F126" s="10"/>
       <c r="G126" s="10">
@@ -7147,7 +7138,7 @@
       <c r="C127" s="10"/>
       <c r="D127" s="10"/>
       <c r="E127" s="10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F127" s="10"/>
       <c r="G127" s="10">
@@ -7181,7 +7172,7 @@
       <c r="C128" s="10"/>
       <c r="D128" s="10"/>
       <c r="E128" s="10" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F128" s="10"/>
       <c r="G128" s="10">
@@ -7215,7 +7206,7 @@
       <c r="C129" s="10"/>
       <c r="D129" s="10"/>
       <c r="E129" s="10" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F129" s="10"/>
       <c r="G129" s="10">
@@ -7342,90 +7333,90 @@
   <sheetData>
     <row r="1" ht="17.25" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" ht="13.5" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" ht="27" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" ht="13.5" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" ht="13.5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" ht="13.5" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" ht="13.5" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" ht="15.75" spans="1:2">
       <c r="A8" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" ht="15.75" spans="1:2">
       <c r="A9" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" ht="15.75" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" ht="15.75" spans="1:2">
       <c r="A11" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/中控指令集.xlsx
+++ b/src/main/resources/中控指令集.xlsx
@@ -206,7 +206,7 @@
     <t>显示监控界面</t>
   </si>
   <si>
-    <t>巡航界面（数智人）</t>
+    <t>巡航界面</t>
   </si>
   <si>
     <t>显示巡航界面（数智人）</t>
@@ -290,10 +290,10 @@
     <t>休息区柱子灯带</t>
   </si>
   <si>
-    <t>全部</t>
-  </si>
-  <si>
     <t>灯光模式</t>
+  </si>
+  <si>
+    <t>切换为</t>
   </si>
   <si>
     <t>值班</t>
@@ -389,9 +389,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -455,15 +455,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -485,22 +477,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -531,36 +552,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -582,8 +574,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -597,9 +598,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -668,7 +668,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -680,7 +704,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -692,13 +734,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -710,19 +782,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -734,109 +830,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -848,7 +848,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1073,17 +1073,50 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1092,7 +1125,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1112,50 +1145,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1173,148 +1173,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1768,8 +1768,8 @@
   </sheetPr>
   <dimension ref="A1:X129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K69" sqref="K69:K74"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="M87" sqref="M87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75"/>
@@ -2170,7 +2170,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" ht="13.5" spans="1:24">
       <c r="A9" s="5"/>
       <c r="B9" s="9"/>
       <c r="C9" s="10"/>
@@ -2226,7 +2226,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" ht="13.5" spans="1:24">
       <c r="A10" s="5"/>
       <c r="B10" s="9"/>
       <c r="C10" s="10"/>
@@ -2408,7 +2408,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" ht="13.5" spans="1:24">
       <c r="A14" s="5"/>
       <c r="B14" s="9"/>
       <c r="C14" s="10"/>
@@ -2464,7 +2464,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" ht="13.5" spans="1:24">
       <c r="A15" s="5"/>
       <c r="B15" s="9"/>
       <c r="C15" s="10"/>
@@ -2668,7 +2668,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:24">
+    <row r="19" ht="13.5" spans="1:24">
       <c r="A19" s="5"/>
       <c r="B19" s="9"/>
       <c r="C19" s="10"/>
@@ -2722,7 +2722,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:24">
+    <row r="20" ht="13.5" spans="1:24">
       <c r="A20" s="5"/>
       <c r="B20" s="9"/>
       <c r="C20" s="10"/>
@@ -2904,7 +2904,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:24">
+    <row r="24" ht="13.5" spans="1:24">
       <c r="A24" s="5"/>
       <c r="B24" s="9"/>
       <c r="C24" s="10"/>
@@ -3020,7 +3020,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:24">
+    <row r="26" ht="13.5" spans="1:24">
       <c r="A26" s="5"/>
       <c r="B26" s="9"/>
       <c r="C26" s="10"/>
@@ -3170,7 +3170,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:24">
+    <row r="29" ht="13.5" spans="1:24">
       <c r="A29" s="5"/>
       <c r="B29" s="9"/>
       <c r="C29" s="10"/>
@@ -3222,7 +3222,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:24">
+    <row r="30" ht="13.5" spans="1:24">
       <c r="A30" s="5"/>
       <c r="B30" s="9"/>
       <c r="C30" s="10"/>
@@ -3404,7 +3404,7 @@
       <c r="W33" s="5"/>
       <c r="X33" s="5"/>
     </row>
-    <row r="34" spans="1:24">
+    <row r="34" ht="13.5" spans="1:24">
       <c r="A34" s="5"/>
       <c r="B34" s="9"/>
       <c r="C34" s="10"/>
@@ -3450,7 +3450,7 @@
       <c r="W34" s="5"/>
       <c r="X34" s="5"/>
     </row>
-    <row r="35" spans="1:24">
+    <row r="35" ht="13.5" spans="1:24">
       <c r="A35" s="5"/>
       <c r="B35" s="9"/>
       <c r="C35" s="10"/>
@@ -3618,7 +3618,7 @@
       <c r="W38" s="5"/>
       <c r="X38" s="5"/>
     </row>
-    <row r="39" spans="1:24">
+    <row r="39" ht="13.5" spans="1:24">
       <c r="A39" s="5"/>
       <c r="B39" s="9"/>
       <c r="C39" s="10"/>
@@ -3664,7 +3664,7 @@
       <c r="W39" s="5"/>
       <c r="X39" s="5"/>
     </row>
-    <row r="40" spans="1:24">
+    <row r="40" ht="13.5" spans="1:24">
       <c r="A40" s="5"/>
       <c r="B40" s="9"/>
       <c r="C40" s="10"/>
@@ -3832,7 +3832,7 @@
       <c r="W43" s="5"/>
       <c r="X43" s="5"/>
     </row>
-    <row r="44" spans="1:24">
+    <row r="44" ht="13.5" spans="1:24">
       <c r="A44" s="5"/>
       <c r="B44" s="9"/>
       <c r="C44" s="10"/>
@@ -3878,7 +3878,7 @@
       <c r="W44" s="5"/>
       <c r="X44" s="5"/>
     </row>
-    <row r="45" spans="1:24">
+    <row r="45" ht="13.5" spans="1:24">
       <c r="A45" s="5"/>
       <c r="B45" s="9"/>
       <c r="C45" s="10"/>
@@ -3920,7 +3920,7 @@
       <c r="W45" s="5"/>
       <c r="X45" s="5"/>
     </row>
-    <row r="46" spans="1:24">
+    <row r="46" ht="13.5" spans="1:24">
       <c r="A46" s="5"/>
       <c r="B46" s="9" t="s">
         <v>73</v>
@@ -3970,7 +3970,7 @@
       <c r="W46" s="5"/>
       <c r="X46" s="5"/>
     </row>
-    <row r="47" spans="1:24">
+    <row r="47" ht="13.5" spans="1:24">
       <c r="A47" s="5"/>
       <c r="B47" s="9"/>
       <c r="C47" s="10"/>
@@ -4054,7 +4054,7 @@
       <c r="W48" s="5"/>
       <c r="X48" s="5"/>
     </row>
-    <row r="49" spans="1:24">
+    <row r="49" ht="13.5" spans="1:24">
       <c r="A49" s="5"/>
       <c r="B49" s="9"/>
       <c r="C49" s="10"/>
@@ -4100,7 +4100,7 @@
       <c r="W49" s="5"/>
       <c r="X49" s="5"/>
     </row>
-    <row r="50" spans="1:24">
+    <row r="50" ht="13.5" spans="1:24">
       <c r="A50" s="5"/>
       <c r="B50" s="9"/>
       <c r="C50" s="10"/>
@@ -4268,7 +4268,7 @@
       <c r="W53" s="5"/>
       <c r="X53" s="5"/>
     </row>
-    <row r="54" spans="1:24">
+    <row r="54" ht="13.5" spans="1:24">
       <c r="A54" s="5"/>
       <c r="B54" s="9"/>
       <c r="C54" s="10"/>
@@ -4314,7 +4314,7 @@
       <c r="W54" s="5"/>
       <c r="X54" s="5"/>
     </row>
-    <row r="55" spans="1:24">
+    <row r="55" ht="13.5" spans="1:24">
       <c r="A55" s="5"/>
       <c r="B55" s="9"/>
       <c r="C55" s="10"/>
@@ -4482,7 +4482,7 @@
       <c r="W58" s="5"/>
       <c r="X58" s="5"/>
     </row>
-    <row r="59" spans="1:24">
+    <row r="59" ht="13.5" spans="1:24">
       <c r="A59" s="5"/>
       <c r="B59" s="9"/>
       <c r="C59" s="10"/>
@@ -4528,7 +4528,7 @@
       <c r="W59" s="5"/>
       <c r="X59" s="5"/>
     </row>
-    <row r="60" spans="1:24">
+    <row r="60" ht="13.5" spans="1:24">
       <c r="A60" s="5"/>
       <c r="B60" s="9"/>
       <c r="C60" s="10"/>
@@ -4696,7 +4696,7 @@
       <c r="W63" s="5"/>
       <c r="X63" s="5"/>
     </row>
-    <row r="64" spans="1:24">
+    <row r="64" ht="13.5" spans="1:24">
       <c r="A64" s="5"/>
       <c r="B64" s="9"/>
       <c r="C64" s="10"/>
@@ -4742,7 +4742,7 @@
       <c r="W64" s="5"/>
       <c r="X64" s="5"/>
     </row>
-    <row r="65" spans="1:24">
+    <row r="65" ht="13.5" spans="1:24">
       <c r="A65" s="5"/>
       <c r="B65" s="9"/>
       <c r="C65" s="10"/>
@@ -4826,7 +4826,7 @@
       <c r="W66" s="5"/>
       <c r="X66" s="5"/>
     </row>
-    <row r="67" spans="1:24">
+    <row r="67" ht="13.5" spans="1:24">
       <c r="A67" s="5"/>
       <c r="B67" s="9" t="s">
         <v>76</v>
@@ -4876,7 +4876,7 @@
       <c r="W67" s="5"/>
       <c r="X67" s="5"/>
     </row>
-    <row r="68" spans="1:24">
+    <row r="68" ht="13.5" spans="1:24">
       <c r="A68" s="5"/>
       <c r="B68" s="9"/>
       <c r="C68" s="10"/>
@@ -5700,7 +5700,7 @@
       <c r="W86" s="5"/>
       <c r="X86" s="5"/>
     </row>
-    <row r="87" ht="13.5" spans="1:24">
+    <row r="87" spans="1:24">
       <c r="A87" s="5"/>
       <c r="B87" s="9"/>
       <c r="C87" s="10"/>
@@ -5746,7 +5746,7 @@
       <c r="W87" s="5"/>
       <c r="X87" s="5"/>
     </row>
-    <row r="88" spans="1:24">
+    <row r="88" ht="13.5" spans="1:24">
       <c r="A88" s="5"/>
       <c r="B88" s="10" t="s">
         <v>16</v>
@@ -5794,7 +5794,7 @@
       <c r="W88" s="5"/>
       <c r="X88" s="5"/>
     </row>
-    <row r="89" spans="1:24">
+    <row r="89" ht="13.5" spans="1:24">
       <c r="A89" s="5"/>
       <c r="B89" s="10"/>
       <c r="C89" s="10"/>
@@ -6514,7 +6514,7 @@
       <c r="W108" s="5"/>
       <c r="X108" s="5"/>
     </row>
-    <row r="109" spans="1:24">
+    <row r="109" ht="13.5" spans="1:24">
       <c r="A109" s="5"/>
       <c r="B109" s="10" t="s">
         <v>16</v>
@@ -6554,7 +6554,7 @@
       <c r="W109" s="5"/>
       <c r="X109" s="5"/>
     </row>
-    <row r="110" spans="1:24">
+    <row r="110" ht="13.5" spans="1:24">
       <c r="A110" s="5"/>
       <c r="B110" s="10"/>
       <c r="C110" s="10"/>
